--- a/Update20171030.xlsx
+++ b/Update20171030.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Functions Update" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Phần mềm cũ</t>
   </si>
@@ -32,17 +32,197 @@
     <t>Phần mềm mới</t>
   </si>
   <si>
-    <t>Quản lý công đoạn</t>
-  </si>
-  <si>
-    <t>Quản lý công đoạn
+    <t>Thêm chức năng nhóm công đoạn để quản lý các công đoạn theo các nhóm công việc</t>
+  </si>
+  <si>
+    <t>Quản lý đơn hàng</t>
+  </si>
+  <si>
+    <t>Diễn giải chức năng mới</t>
+  </si>
+  <si>
+    <t>Cấp cha</t>
+  </si>
+  <si>
+    <t>Đơn hàng</t>
+  </si>
+  <si>
+    <t>Quản lý</t>
+  </si>
+  <si>
+    <t>Danh sách công đoạn</t>
+  </si>
+  <si>
+    <t>Danh sách công đoạn
 + Nhóm công đoạn</t>
   </si>
   <si>
-    <t>Chi chú</t>
-  </si>
-  <si>
-    <t>Thêm chức năng nhóm công đoạn để quản lý các công đoạn theo các nhóm công việc</t>
+    <t>Công đoạn đơn hàng</t>
+  </si>
+  <si>
+    <t>Nghiệp vụ</t>
+  </si>
+  <si>
+    <t>Công đoạn đơn hàng
++Đang chạy, hoàn tất
++Đã giao qua công đoạn nào
++Đang ở công đoạn nào</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thêm chức năng giám sát vào quy trình chạy công đoạn để có thông tin phục vụ cho chức năng này
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Chức năng yêu cầu con người cần ghi nhận và tương tác với phần mềm ghi nhận thời gian, công việc còn lại phần mềm sẽ tự điều phối)</t>
+    </r>
+  </si>
+  <si>
+    <t>Đơn hàng /
+Quản lý đơn hàng</t>
+  </si>
+  <si>
+    <t>Quản lý đơn hàng
++Dự kiến Thô qua Tinh
++Dự kiến Tinh qua QA
++Thực tế Thô qua Tinh
++Thực tế Tinh qua QA
++Bổ sung bộ công cụ lọc và hiển thị theo yêu cầu
++Thực tế xuất hàng
++Dự kiến xuất hàng</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thêm chức năng thời gian dự kiến và thời gian thực tế chuyển qua nhóm công đoạn
+Thời gian dự kiến và thực tế cho phép chỉnh sửa nếu có sai sót
+Thời gian dự kiến cần được nhập liệu trong quản lý đơn hàng
+Thời gian thực tế hệ thống sẽ theo dõi đơn hàng qua các công đoạn và ghi nhận thời gian chuyển qua
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Chức năng tự động tính toán cần bổ sung thêm chức năng giám sát thời gian chạy trong công đoạn)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Thêm bộ công cụ để lọc theo trạng thái, độ ưu tiên, và mặc định không hiển thị đơn hàng đã hoàn thành cho bớt rối
+Thêm ghi nhận thời gian thực tế xuất hàng và dự kiến xuất hàng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Mặc định ngày thực tế bằng ngày dự kiến và cho phép sửa nếu cần)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Công đoạn đơn hàng
++Màn hình dự kiến công việc sẽ đến
++Cho phép ghi chú vào công đoạn chạy đơn hàng
++Màn hình xem tất cả thông tin của các công đoạn đơn hàng
++Thời gian chờ
+</t>
+  </si>
+  <si>
+    <t>Báo cáo</t>
+  </si>
+  <si>
+    <t>Bổ xung thêm mới
++Màn hình dự kiến công việc sẽ đến
++Màn hình xem tất cả thông tin của các công đoạn đơn hàng</t>
+  </si>
+  <si>
+    <t>Thêm màn hình xem tất cả thông tin của công đoạn đơn hàng
+(Màn hình xem thông tin cho bộ phận quản trị nhìn tổng quan)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thêm màn hình hiển thị công việc mà công đoạn trước đó dự tính chuyển đến
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Dự kiến chuyển đến được người có trách nhiệm ghi nhận, Thực tế chuyển đến là khi hoàn thành và được duyệt)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Thêm chức năng cho phép ghi chú vào công đoạn của từng đơn hàng riêng lẻ
+Thêm chức năng giám sát thời gian chạy của công đoạn để ghi nhận phục vụ cho quản lý đơn hàng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tính thời gian chờ từ khi đơn hàng chuyển qua đến khi bắt đầu làm</t>
+    </r>
+  </si>
+  <si>
+    <t>Bổ xung thêm mới
++Màn hình báo cáo công đoạn</t>
+  </si>
+  <si>
+    <t>Bổ xung thêm mới
++Quản lý hệ thống máy làm việc
++Tính hiệu xuất máy làm việc
++Ghi nhận trạng thái máy chạy, máy nghỉ, máy hư, máy sửa chữa</t>
+  </si>
+  <si>
+    <t>Chức năng thống kê ngày dự kiến/thực tế Thô qua Tinh, Tinh qua QA
+Nếu thực tế trễ hơn dự kiến cần tính Thời gian trễ
+Cho phép xuất ra Excel</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cập nhật hệ thống (quản lý / báo cáo) hiệu suất và trạng thái máy gia công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+Cần tự động ghi nhận khi công đoạn chạy thì sử dụng máy nào, thời gian nào để biết được máy đó đang chạy hay đang nghỉ phục vụ cho việc điều phối máy vào làm việc. Cập nhật máy sửa và máy hư để kịp thời điều phối luồng công việc.
++Tự động ghi nhận lại nhật ký chạy của máy để phục vụ cho việc xem hiệu suất làm việc
++Tạo báo cáo hiệu xuất chạy của hệ thống máy</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -77,7 +257,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="8"/>
+      <color theme="4"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -102,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -112,8 +292,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,22 +626,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="84.140625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="4.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="107.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,22 +652,124 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E1" s="9" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>5</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Update20171030.xlsx
+++ b/Update20171030.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Functions Update" sheetId="1" r:id="rId1"/>
+    <sheet name="Database Update" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Phần mềm cũ</t>
   </si>
@@ -224,12 +225,47 @@
 +Tạo báo cáo hiệu xuất chạy của hệ thống máy</t>
     </r>
   </si>
+  <si>
+    <t>Bảng</t>
+  </si>
+  <si>
+    <t>Cột thêm mới</t>
+  </si>
+  <si>
+    <t>Cột cập nhật</t>
+  </si>
+  <si>
+    <t>Cột xóa bỏ</t>
+  </si>
+  <si>
+    <t>PM_ProjectProcessList</t>
+  </si>
+  <si>
+    <t>ProcessListGroup [nvarchar(255)])</t>
+  </si>
+  <si>
+    <t>PM_ProjectMachinery</t>
+  </si>
+  <si>
+    <t>MachineryStatus [nvarchar(50)]</t>
+  </si>
+  <si>
+    <t>PM_ProjectTask</t>
+  </si>
+  <si>
+    <t>ProjectTaskThucTeThoQuaTinh [datetime]
+ProjectTaskThucTeTinhQuaQA [datetime]</t>
+  </si>
+  <si>
+    <t>ProjectTaskExpectedOne +&gt; ProjectTaskDuKienThoQuaTinh
+ProjectTaskExpectedTwo +&gt; ProjectTaskThucTeTinhQuaQA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +297,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -282,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -311,6 +361,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,7 +686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -772,4 +830,76 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="4" max="4" width="58" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>